--- a/kiibohd/KeymapGen.xlsx
+++ b/kiibohd/KeymapGen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbette/Documents/Repos/infinity-ergodox-firmware/kiibohd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA15A85-16D7-3844-9BBE-8B5CFF3A9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D15DF0-8383-B74C-9992-75D173AE4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39080" yWindow="-8600" windowWidth="38500" windowHeight="21580" xr2:uid="{40D80B43-25CA-EA4E-AB0D-D9F107CAC25E}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="38500" windowHeight="21580" xr2:uid="{40D80B43-25CA-EA4E-AB0D-D9F107CAC25E}"/>
   </bookViews>
   <sheets>
     <sheet name="ErgoDox" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="513">
   <si>
     <t># Left Side</t>
   </si>
@@ -1560,9 +1559,6 @@
     <t>Formatted</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>MyPass</t>
   </si>
   <si>
@@ -1572,7 +1568,19 @@
     <t>U["LSHIFT"] + U"9" , U["LSHIFT"] + U"0";</t>
   </si>
   <si>
-    <t>U["LSHIFT"] + U"M";</t>
+    <t>Caps</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>U["LSHIFT"] + U"P";</t>
+  </si>
+  <si>
+    <t>commas</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ABB920-9D28-A94C-94D6-5DA8777B1802}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2206,28 +2216,28 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2022-10-17";</v>
+        <v>Date = "2023-06-12";</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2022-10-17";</v>
+        <v>Date = "2023-06-12";</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2022-10-17";</v>
+        <v>Date = "2023-06-12";</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="G9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2022-10-17";</v>
+        <v>Date = "2023-06-12";</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>499</v>
@@ -2350,7 +2360,7 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>_xlfn.CONCAT('Layer 2'!A35:I35)</f>
-        <v>U"Q" : U["LSHIFT"] + U"M";U"W" : U"UP";U"R" : CONS"VOLUMEDOWN";U"T" : CONS"VOLUMEUP";U"FUNCTION1" : CONS"PAUSEPLAY";</v>
+        <v>U"Q" : U["LSHIFT"] + U"P";U"W" : U"UP";U"R" : CONS"VOLUMEDOWN";U"T" : CONS"VOLUMEUP";U"FUNCTION1" : CONS"PAUSEPLAY";</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>499</v>
@@ -2669,7 +2679,7 @@
   <dimension ref="A3:I44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2822,7 +2832,7 @@
         <v>160</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,7 +2912,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>184</v>
@@ -3597,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A4BCCA-B4EF-EF4A-BBEB-7D9A3BBAE5AE}">
   <dimension ref="A3:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4554,7 @@
   <dimension ref="A3:I44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4694,7 +4704,7 @@
         <v>307</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H9" t="s">
         <v>307</v>
@@ -4708,7 +4718,7 @@
         <v>307</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>219</v>
@@ -5127,7 +5137,7 @@
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U"Q" : U["LSHIFT"] + U"M";</v>
+        <v>U"Q" : U["LSHIFT"] + U"P";</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5510,7 +5520,7 @@
   <dimension ref="A3:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:I37"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6463,10 +6473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD1808E-DC18-144B-863A-3CD5316F891D}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6476,7 +6486,8 @@
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -6491,7 +6502,7 @@
         <v>500</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -6499,8 +6510,8 @@
         <v>501</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>_xlfn.CONCAT(B6:Q6)</f>
-        <v>U["LSHIFT"] + U"M" , U"y" , U"P" , U"a" , U"s" , U"s";</v>
+        <f>_xlfn.CONCAT(B10:S10)&amp;";"</f>
+        <v>U["LSHIFT"] + U"M", U"y", U["LSHIFT"] + U"P", U"a", U"s", U"s";</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -6587,6 +6598,14 @@
         <f>P4+1</f>
         <v>16</v>
       </c>
+      <c r="R4" s="9">
+        <f>Q4+1</f>
+        <v>17</v>
+      </c>
+      <c r="S4" s="9">
+        <f>R4+1</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6649,43 +6668,49 @@
         <v/>
       </c>
       <c r="P5" s="9" t="str">
-        <f t="shared" ref="P5" si="2">MID($B$1,P4,1)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>505</v>
-      </c>
+        <f t="shared" ref="P5:R5" si="2">MID($B$1,P4,1)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>IF(B5&lt;&gt;"","U[""LSHIFT""] + U"""&amp;B5&amp;"""","")</f>
-        <v>U["LSHIFT"] + U"M"</v>
+        <f>IF(AND(EXACT(B5,UPPER(B5)),B5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <v xml:space="preserve">U["LSHIFT"] + </v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(C5&lt;&gt;""," , U"""&amp;C5&amp;"""","")</f>
-        <v xml:space="preserve"> , U"y"</v>
+        <f t="shared" ref="C6:R6" si="3">IF(AND(EXACT(C5,UPPER(C5)),C5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <v/>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" ref="D6:P6" si="3">IF(D5&lt;&gt;""," , U"""&amp;D5&amp;"""","")</f>
-        <v xml:space="preserve"> , U"P"</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">U["LSHIFT"] + </v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> , U"a"</v>
+        <v/>
       </c>
       <c r="F6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> , U"s"</v>
+        <v/>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> , U"s"</v>
+        <v/>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(EXACT(H5,UPPER(H5)),H5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
         <v/>
       </c>
       <c r="I6" s="9" t="str">
@@ -6720,8 +6745,322 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>505</v>
+      <c r="Q6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f t="shared" ref="R6" si="4">IF(AND(EXACT(R5,UPPER(R5)),R5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <v/>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f t="shared" ref="S6" si="5">IF(AND(EXACT(S5,UPPER(S5)),S5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" ref="B7:S7" si="6">IF(B5&lt;&gt;"","U"""&amp;B5&amp;"""","")</f>
+        <v>U"M"</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>U"y"</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>IF(D5&lt;&gt;"","U"""&amp;D5&amp;"""","")</f>
+        <v>U"P"</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>U"a"</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>U"s"</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>U"s"</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f>_xlfn.CONCAT(B6:B7)</f>
+        <v>U["LSHIFT"] + U"M"</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f t="shared" ref="C8:S8" si="7">_xlfn.CONCAT(C6:C7)</f>
+        <v>U"y"</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>U["LSHIFT"] + U"P"</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>U"a"</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>U"s"</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>U"s"</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="str">
+        <f>IF(C5&lt;&gt;"",", ","")</f>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" ref="D9:S9" si="8">IF(D5&lt;&gt;"",", ","")</f>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f>B8</f>
+        <v>U["LSHIFT"] + U"M"</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>C9&amp;C8</f>
+        <v>, U"y"</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" ref="D10:S10" si="9">D9&amp;D8</f>
+        <v>, U["LSHIFT"] + U"P"</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>, U"a"</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>, U"s"</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>, U"s"</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/kiibohd/KeymapGen.xlsx
+++ b/kiibohd/KeymapGen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbette/Documents/Repos/infinity-ergodox-firmware/kiibohd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D15DF0-8383-B74C-9992-75D173AE4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393648C-3030-F946-B76F-AA41436C2AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38500" windowHeight="21580" xr2:uid="{40D80B43-25CA-EA4E-AB0D-D9F107CAC25E}"/>
+    <workbookView xWindow="8260" yWindow="3660" windowWidth="28800" windowHeight="21580" xr2:uid="{40D80B43-25CA-EA4E-AB0D-D9F107CAC25E}"/>
   </bookViews>
   <sheets>
     <sheet name="ErgoDox" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="512">
   <si>
     <t># Left Side</t>
   </si>
@@ -1575,9 +1575,6 @@
   </si>
   <si>
     <t>combined</t>
-  </si>
-  <si>
-    <t>U["LSHIFT"] + U"P";</t>
   </si>
   <si>
     <t>commas</t>
@@ -2012,7 +2009,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,28 +2213,28 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2023-06-12";</v>
+        <v>Date = "2023-10-10";</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2023-06-12";</v>
+        <v>Date = "2023-10-10";</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2023-06-12";</v>
+        <v>Date = "2023-10-10";</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>499</v>
       </c>
       <c r="G9" s="5" t="str">
         <f ca="1">"Date = """&amp;TEXT(TODAY(),"YYYY-MM-DD")&amp;""";"</f>
-        <v>Date = "2023-06-12";</v>
+        <v>Date = "2023-10-10";</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>499</v>
@@ -2360,7 +2357,7 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>_xlfn.CONCAT('Layer 2'!A35:I35)</f>
-        <v>U"Q" : U["LSHIFT"] + U"P";U"W" : U"UP";U"R" : CONS"VOLUMEDOWN";U"T" : CONS"VOLUMEUP";U"FUNCTION1" : CONS"PAUSEPLAY";</v>
+        <v>U"W" : U"UP";U"R" : CONS"VOLUMEDOWN";U"T" : CONS"VOLUMEUP";U"FUNCTION1" : CONS"PAUSEPLAY";</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>499</v>
@@ -4717,9 +4714,7 @@
       <c r="A10" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>511</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>219</v>
       </c>
@@ -5137,7 +5132,7 @@
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>U"Q" : U["LSHIFT"] + U"P";</v>
+        <v/>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6583,27 +6578,27 @@
         <v>12</v>
       </c>
       <c r="N4" s="9">
-        <f>M4+1</f>
+        <f t="shared" ref="N4:S4" si="1">M4+1</f>
         <v>13</v>
       </c>
       <c r="O4" s="9">
-        <f>N4+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="P4" s="9">
-        <f>O4+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="Q4" s="9">
-        <f>P4+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="R4" s="9">
-        <f>Q4+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="S4" s="9">
-        <f>R4+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -6616,67 +6611,67 @@
         <v>M</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f t="shared" ref="C5:O5" si="1">MID($B$1,C4,1)</f>
+        <f t="shared" ref="C5:O5" si="2">MID($B$1,C4,1)</f>
         <v>y</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P5" s="9" t="str">
-        <f t="shared" ref="P5:R5" si="2">MID($B$1,P4,1)</f>
+        <f t="shared" ref="P5:R5" si="3">MID($B$1,P4,1)</f>
         <v/>
       </c>
       <c r="Q5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S5" s="9"/>
@@ -6690,23 +6685,23 @@
         <v xml:space="preserve">U["LSHIFT"] + </v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:R6" si="3">IF(AND(EXACT(C5,UPPER(C5)),C5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <f t="shared" ref="C6:Q6" si="4">IF(AND(EXACT(C5,UPPER(C5)),C5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
         <v/>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">U["LSHIFT"] + </v>
       </c>
       <c r="E6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H6" s="9" t="str">
@@ -6714,47 +6709,47 @@
         <v/>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R6" s="9" t="str">
-        <f t="shared" ref="R6" si="4">IF(AND(EXACT(R5,UPPER(R5)),R5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <f t="shared" ref="R6" si="5">IF(AND(EXACT(R5,UPPER(R5)),R5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
         <v/>
       </c>
       <c r="S6" s="9" t="str">
-        <f t="shared" ref="S6" si="5">IF(AND(EXACT(S5,UPPER(S5)),S5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
+        <f t="shared" ref="S6" si="6">IF(AND(EXACT(S5,UPPER(S5)),S5&lt;&gt;""),"U[""LSHIFT""] + ","")</f>
         <v/>
       </c>
     </row>
@@ -6763,11 +6758,11 @@
         <v>509</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f t="shared" ref="B7:S7" si="6">IF(B5&lt;&gt;"","U"""&amp;B5&amp;"""","")</f>
+        <f t="shared" ref="B7:S7" si="7">IF(B5&lt;&gt;"","U"""&amp;B5&amp;"""","")</f>
         <v>U"M"</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>U"y"</v>
       </c>
       <c r="D7" s="9" t="str">
@@ -6775,63 +6770,63 @@
         <v>U"P"</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>U"a"</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>U"s"</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>U"s"</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6844,77 +6839,77 @@
         <v>U["LSHIFT"] + U"M"</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" ref="C8:S8" si="7">_xlfn.CONCAT(C6:C7)</f>
+        <f t="shared" ref="C8:S8" si="8">_xlfn.CONCAT(C6:C7)</f>
         <v>U"y"</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>U["LSHIFT"] + U"P"</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>U"a"</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>U"s"</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>U"s"</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="str">
@@ -6922,67 +6917,67 @@
         <v xml:space="preserve">, </v>
       </c>
       <c r="D9" s="9" t="str">
-        <f t="shared" ref="D9:S9" si="8">IF(D5&lt;&gt;"",", ","")</f>
+        <f t="shared" ref="D9:S9" si="9">IF(D5&lt;&gt;"",", ","")</f>
         <v xml:space="preserve">, </v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, </v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, </v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, </v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S9" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6999,67 +6994,67 @@
         <v>, U"y"</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f t="shared" ref="D10:S10" si="9">D9&amp;D8</f>
+        <f t="shared" ref="D10:S10" si="10">D9&amp;D8</f>
         <v>, U["LSHIFT"] + U"P"</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>, U"a"</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>, U"s"</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>, U"s"</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S10" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
